--- a/angle&positions/1.1_positions (1).xlsx
+++ b/angle&positions/1.1_positions (1).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F9B679-0515-4C5E-A673-0708B1D84EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\Fidel\matlab\angle&amp;positions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB057F7-8CF7-473B-8995-A685AC6C54E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F-plane RAW" sheetId="3" r:id="rId1"/>
@@ -188,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -538,16 +543,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -857,7 +864,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>76</v>
       </c>
@@ -1167,7 +1174,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>109</v>
       </c>
@@ -1322,7 +1329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>142</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>175</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>211</v>
       </c>
@@ -1787,7 +1794,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>242</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>274</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>309</v>
       </c>
@@ -2252,7 +2259,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>342</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>376</v>
       </c>
@@ -2562,7 +2569,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>415</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>439</v>
       </c>
@@ -2872,7 +2879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>475</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>509</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>542</v>
       </c>
@@ -3337,7 +3344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>576</v>
       </c>
@@ -3492,7 +3499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>610</v>
       </c>
@@ -3647,7 +3654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>643</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>676</v>
       </c>
@@ -3957,7 +3964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>709</v>
       </c>
@@ -4112,7 +4119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>744</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>775</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>810</v>
       </c>
@@ -4577,7 +4584,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>874</v>
       </c>
@@ -4732,7 +4739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>911</v>
       </c>
@@ -4887,7 +4894,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>943</v>
       </c>
@@ -5042,7 +5049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>977</v>
       </c>
@@ -5197,7 +5204,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1011</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1043</v>
       </c>
@@ -5507,7 +5514,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1076</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1110</v>
       </c>
@@ -5817,7 +5824,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1143</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1176</v>
       </c>
@@ -6127,7 +6134,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1210</v>
       </c>
@@ -6282,7 +6289,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1243</v>
       </c>
@@ -6437,7 +6444,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1275</v>
       </c>
@@ -6592,7 +6599,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1310</v>
       </c>
@@ -6747,7 +6754,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1345</v>
       </c>
@@ -6902,7 +6909,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1383</v>
       </c>
@@ -7057,7 +7064,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1416</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1445</v>
       </c>
@@ -7367,7 +7374,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1475</v>
       </c>
@@ -7522,7 +7529,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1510</v>
       </c>
@@ -7677,7 +7684,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1543</v>
       </c>
@@ -7832,7 +7839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1576</v>
       </c>
@@ -7987,7 +7994,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1610</v>
       </c>
@@ -8142,7 +8149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1642</v>
       </c>
@@ -8297,7 +8304,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1676</v>
       </c>
@@ -8452,7 +8459,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1709</v>
       </c>
@@ -8607,7 +8614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1743</v>
       </c>
@@ -8762,7 +8769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1774</v>
       </c>
@@ -8917,7 +8924,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1810</v>
       </c>
@@ -9072,7 +9079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1843</v>
       </c>
@@ -9227,7 +9234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1872</v>
       </c>
@@ -9382,7 +9389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1910</v>
       </c>
@@ -9537,7 +9544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1944</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1977</v>
       </c>
@@ -9847,7 +9854,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2010</v>
       </c>
@@ -10002,7 +10009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2043</v>
       </c>
@@ -10157,7 +10164,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2076</v>
       </c>
@@ -10312,7 +10319,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2111</v>
       </c>
@@ -10467,7 +10474,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2143</v>
       </c>
@@ -10622,7 +10629,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2177</v>
       </c>
@@ -10777,7 +10784,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2211</v>
       </c>
@@ -10932,7 +10939,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2243</v>
       </c>
@@ -11087,7 +11094,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2277</v>
       </c>
@@ -11242,7 +11249,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2310</v>
       </c>
@@ -11397,7 +11404,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2345</v>
       </c>
@@ -11552,7 +11559,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2377</v>
       </c>
@@ -11707,7 +11714,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2408</v>
       </c>
@@ -11862,7 +11869,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:51">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2444</v>
       </c>
@@ -12017,7 +12024,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:51">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2475</v>
       </c>
@@ -12172,7 +12179,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2507</v>
       </c>
@@ -12327,7 +12334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2544</v>
       </c>
@@ -12482,7 +12489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:51">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2576</v>
       </c>
@@ -12637,7 +12644,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:51">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2612</v>
       </c>
@@ -12792,7 +12799,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:51">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2643</v>
       </c>
@@ -12947,7 +12954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:51">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2677</v>
       </c>
@@ -13102,7 +13109,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:51">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2712</v>
       </c>
@@ -13257,7 +13264,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:51">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2745</v>
       </c>
@@ -13412,7 +13419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:51">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2776</v>
       </c>
@@ -13567,7 +13574,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="1:51">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2811</v>
       </c>
@@ -13722,7 +13729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:51">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2842</v>
       </c>
@@ -13877,7 +13884,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:51">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2878</v>
       </c>
@@ -14032,7 +14039,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:51">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2910</v>
       </c>
@@ -14187,7 +14194,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:51">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2944</v>
       </c>
@@ -14342,7 +14349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:51">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2977</v>
       </c>
@@ -14497,7 +14504,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:51">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3013</v>
       </c>
@@ -14652,7 +14659,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:51">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3043</v>
       </c>
@@ -14807,7 +14814,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:51">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3078</v>
       </c>
@@ -14962,7 +14969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:51">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3112</v>
       </c>
@@ -15117,7 +15124,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:51">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3144</v>
       </c>
@@ -15272,7 +15279,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:51">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3178</v>
       </c>
@@ -15427,7 +15434,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:51">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3213</v>
       </c>
@@ -15582,7 +15589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:51">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3243</v>
       </c>
@@ -15737,7 +15744,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:51">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3278</v>
       </c>
@@ -15892,7 +15899,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:51">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3313</v>
       </c>
@@ -16047,7 +16054,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:51">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3345</v>
       </c>
@@ -16202,7 +16209,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="1:51">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3378</v>
       </c>
@@ -16357,7 +16364,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:51">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3412</v>
       </c>
@@ -16512,7 +16519,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:51">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3445</v>
       </c>
@@ -16667,7 +16674,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="1:51">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3478</v>
       </c>
@@ -16822,7 +16829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:51">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3510</v>
       </c>
@@ -16977,7 +16984,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:51">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3546</v>
       </c>
@@ -17132,7 +17139,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="108" spans="1:51">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3578</v>
       </c>
@@ -17287,7 +17294,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:51">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3612</v>
       </c>
@@ -17442,7 +17449,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:51">
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3644</v>
       </c>
@@ -17597,7 +17604,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:51">
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3677</v>
       </c>
@@ -17752,7 +17759,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:51">
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3712</v>
       </c>
@@ -17907,7 +17914,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:51">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3744</v>
       </c>
@@ -18062,7 +18069,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:51">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3778</v>
       </c>
@@ -18217,7 +18224,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:51">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3812</v>
       </c>
@@ -18372,7 +18379,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:51">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3845</v>
       </c>
@@ -18527,7 +18534,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:51">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3878</v>
       </c>
@@ -18682,7 +18689,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:51">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3910</v>
       </c>
@@ -18837,7 +18844,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:51">
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3945</v>
       </c>
@@ -18992,7 +18999,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:51">
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3979</v>
       </c>
@@ -19147,7 +19154,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:51">
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4010</v>
       </c>
@@ -19302,7 +19309,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:51">
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4045</v>
       </c>
@@ -19457,7 +19464,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="123" spans="1:51">
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4077</v>
       </c>
@@ -19612,7 +19619,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:51">
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4114</v>
       </c>
@@ -19767,7 +19774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:51">
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4144</v>
       </c>
@@ -19922,7 +19929,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:51">
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4177</v>
       </c>
@@ -20077,7 +20084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:51">
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4214</v>
       </c>
@@ -20232,7 +20239,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:51">
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4243</v>
       </c>
@@ -20387,7 +20394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:51">
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4280</v>
       </c>
@@ -20542,7 +20549,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:51">
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4311</v>
       </c>
@@ -20697,7 +20704,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:51">
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4345</v>
       </c>
@@ -20852,7 +20859,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:51">
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4376</v>
       </c>
@@ -21007,7 +21014,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:51">
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4416</v>
       </c>
@@ -21162,7 +21169,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:51">
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4441</v>
       </c>
@@ -21328,12 +21335,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21488,7 +21495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -21643,7 +21650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46</v>
       </c>
@@ -21798,7 +21805,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>76</v>
       </c>
@@ -21953,7 +21960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>109</v>
       </c>
@@ -22108,7 +22115,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>142</v>
       </c>
@@ -22263,7 +22270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>175</v>
       </c>
@@ -22418,7 +22425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>211</v>
       </c>
@@ -22573,7 +22580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>242</v>
       </c>
@@ -22728,7 +22735,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>274</v>
       </c>
@@ -22883,7 +22890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>309</v>
       </c>
@@ -23038,7 +23045,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>342</v>
       </c>
@@ -23193,7 +23200,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>376</v>
       </c>
@@ -23348,7 +23355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>415</v>
       </c>
@@ -23503,7 +23510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>439</v>
       </c>
@@ -23658,7 +23665,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>475</v>
       </c>
@@ -23813,7 +23820,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>509</v>
       </c>
@@ -23968,7 +23975,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>542</v>
       </c>
@@ -24123,7 +24130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>576</v>
       </c>
@@ -24278,7 +24285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>610</v>
       </c>
@@ -24433,7 +24440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>643</v>
       </c>
@@ -24588,7 +24595,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>676</v>
       </c>
@@ -24743,7 +24750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>709</v>
       </c>
@@ -24898,7 +24905,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>744</v>
       </c>
@@ -25053,7 +25060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>775</v>
       </c>
@@ -25208,7 +25215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>810</v>
       </c>
@@ -25363,7 +25370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>874</v>
       </c>
@@ -25518,7 +25525,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>911</v>
       </c>
@@ -25673,7 +25680,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>943</v>
       </c>
@@ -25828,7 +25835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>977</v>
       </c>
@@ -25983,7 +25990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1011</v>
       </c>
@@ -26138,7 +26145,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1043</v>
       </c>
@@ -26293,7 +26300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1076</v>
       </c>
@@ -26448,7 +26455,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1110</v>
       </c>
@@ -26603,7 +26610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1143</v>
       </c>
@@ -26758,7 +26765,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1176</v>
       </c>
@@ -26913,7 +26920,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1210</v>
       </c>
@@ -27068,7 +27075,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1243</v>
       </c>
@@ -27223,7 +27230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1275</v>
       </c>
@@ -27378,7 +27385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1310</v>
       </c>
@@ -27533,7 +27540,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1345</v>
       </c>
@@ -27688,7 +27695,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1383</v>
       </c>
@@ -27843,7 +27850,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1416</v>
       </c>
@@ -27998,7 +28005,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1445</v>
       </c>
@@ -28153,7 +28160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1475</v>
       </c>
@@ -28308,7 +28315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1510</v>
       </c>
@@ -28463,7 +28470,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1543</v>
       </c>
@@ -28618,7 +28625,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1576</v>
       </c>
@@ -28773,7 +28780,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1610</v>
       </c>
@@ -28928,7 +28935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1642</v>
       </c>
@@ -29083,7 +29090,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1676</v>
       </c>
@@ -29238,7 +29245,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1709</v>
       </c>
@@ -29393,7 +29400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1743</v>
       </c>
@@ -29548,7 +29555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1774</v>
       </c>
@@ -29703,7 +29710,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1810</v>
       </c>
@@ -29858,7 +29865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1843</v>
       </c>
@@ -30013,7 +30020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1872</v>
       </c>
@@ -30168,7 +30175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1910</v>
       </c>
@@ -30323,7 +30330,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1944</v>
       </c>
@@ -30478,7 +30485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1977</v>
       </c>
@@ -30633,7 +30640,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2010</v>
       </c>
@@ -30788,7 +30795,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2043</v>
       </c>
@@ -30943,7 +30950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2076</v>
       </c>
@@ -31098,7 +31105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2111</v>
       </c>
@@ -31253,7 +31260,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2143</v>
       </c>
@@ -31408,7 +31415,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2177</v>
       </c>
@@ -31563,7 +31570,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2211</v>
       </c>
@@ -31718,7 +31725,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2243</v>
       </c>
@@ -31873,7 +31880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2277</v>
       </c>
@@ -32028,7 +32035,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2310</v>
       </c>
@@ -32183,7 +32190,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2345</v>
       </c>
@@ -32338,7 +32345,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2377</v>
       </c>
@@ -32493,7 +32500,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2408</v>
       </c>
@@ -32648,7 +32655,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:51">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2444</v>
       </c>
@@ -32803,7 +32810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:51">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2475</v>
       </c>
@@ -32958,7 +32965,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2507</v>
       </c>
@@ -33113,7 +33120,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2544</v>
       </c>
@@ -33268,7 +33275,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:51">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2576</v>
       </c>
@@ -33423,7 +33430,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:51">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2612</v>
       </c>
@@ -33578,7 +33585,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:51">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2643</v>
       </c>
@@ -33733,7 +33740,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:51">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2677</v>
       </c>
@@ -33888,7 +33895,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:51">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2712</v>
       </c>
@@ -34043,7 +34050,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:51">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2745</v>
       </c>
@@ -34198,7 +34205,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:51">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2776</v>
       </c>
@@ -34353,7 +34360,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:51">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2811</v>
       </c>
@@ -34508,7 +34515,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:51">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2842</v>
       </c>
@@ -34663,7 +34670,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:51">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2878</v>
       </c>
@@ -34818,7 +34825,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:51">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2910</v>
       </c>
@@ -34973,7 +34980,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:51">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2944</v>
       </c>
@@ -35128,7 +35135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:51">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2977</v>
       </c>
@@ -35283,7 +35290,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:51">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3013</v>
       </c>
@@ -35438,7 +35445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:51">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3043</v>
       </c>
@@ -35593,7 +35600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:51">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3078</v>
       </c>
@@ -35748,7 +35755,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:51">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3112</v>
       </c>
@@ -35903,7 +35910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:51">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3144</v>
       </c>
@@ -36058,7 +36065,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:51">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3178</v>
       </c>
@@ -36213,7 +36220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:51">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3213</v>
       </c>
@@ -36368,7 +36375,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:51">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3243</v>
       </c>
@@ -36523,7 +36530,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:51">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3278</v>
       </c>
@@ -36678,7 +36685,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:51">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3313</v>
       </c>
@@ -36833,7 +36840,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:51">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3345</v>
       </c>
@@ -36988,7 +36995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:51">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3378</v>
       </c>
@@ -37143,7 +37150,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:51">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3412</v>
       </c>
@@ -37298,7 +37305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:51">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3445</v>
       </c>
@@ -37453,7 +37460,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:51">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3478</v>
       </c>
@@ -37608,7 +37615,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:51">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3510</v>
       </c>
@@ -37763,7 +37770,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:51">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3546</v>
       </c>
@@ -37918,7 +37925,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="108" spans="1:51">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3578</v>
       </c>
@@ -38073,7 +38080,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:51">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3612</v>
       </c>
@@ -38228,7 +38235,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:51">
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3644</v>
       </c>
@@ -38383,7 +38390,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:51">
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3677</v>
       </c>
@@ -38538,7 +38545,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:51">
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3712</v>
       </c>
@@ -38693,7 +38700,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:51">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3744</v>
       </c>
@@ -38848,7 +38855,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:51">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3778</v>
       </c>
@@ -39003,7 +39010,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:51">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3812</v>
       </c>
@@ -39158,7 +39165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:51">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3845</v>
       </c>
@@ -39313,7 +39320,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:51">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3878</v>
       </c>
@@ -39468,7 +39475,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:51">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3910</v>
       </c>
@@ -39623,7 +39630,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:51">
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3945</v>
       </c>
@@ -39778,7 +39785,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:51">
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3979</v>
       </c>
@@ -39933,7 +39940,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:51">
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4010</v>
       </c>
@@ -40088,7 +40095,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:51">
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4045</v>
       </c>
@@ -40243,7 +40250,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:51">
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4077</v>
       </c>
@@ -40398,7 +40405,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:51">
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4114</v>
       </c>
@@ -40553,7 +40560,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:51">
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4144</v>
       </c>
@@ -40708,7 +40715,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:51">
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4177</v>
       </c>
@@ -40863,7 +40870,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:51">
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4214</v>
       </c>
@@ -41018,7 +41025,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:51">
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4243</v>
       </c>
@@ -41173,7 +41180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:51">
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4280</v>
       </c>
@@ -41328,7 +41335,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:51">
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4311</v>
       </c>
@@ -41483,7 +41490,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:51">
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4345</v>
       </c>
@@ -41638,7 +41645,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:51">
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4376</v>
       </c>
@@ -41793,7 +41800,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:51">
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4416</v>
       </c>
@@ -41948,7 +41955,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:51">
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4441</v>
       </c>
